--- a/data/docs/Anexo-6.xlsx
+++ b/data/docs/Anexo-6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Desktop\NUEVO PROGRAMA PNCBN\Evaluacion y seleccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\manoly\MatCom\pncti\data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D38089-B95E-44D2-9E98-1738814DB159}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9AABBA-89E5-4972-BE7B-B29480E5EE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D4A827E2-8714-49CF-B4A6-2A208CB3C175}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -603,94 +603,90 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,9 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -748,7 +741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,7 +1029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1050,7 +1043,7 @@
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
@@ -1058,12 +1051,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="9"/>
@@ -1075,112 +1068,112 @@
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="28"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="19">
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="17">
         <f>SUM('Criterio 1'!D20+'Criterio 2'!D16+'Criterio 3'!D30+'Criterio 4'!D46)</f>
         <v>360</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="20">
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="18">
         <f>F9/4</f>
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="40"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="41"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1211,7 +1204,7 @@
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="50.109375" customWidth="1"/>
@@ -1220,50 +1213,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="28"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
@@ -1330,7 +1315,7 @@
       </c>
     </row>
     <row r="18" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3">
@@ -1338,7 +1323,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3">
@@ -1349,7 +1334,7 @@
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <f>SUM(D11:D19)/9</f>
         <v>90</v>
       </c>
@@ -1376,60 +1361,52 @@
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="28"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1480,7 +1457,7 @@
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <f>SUM(D11:D15)/5</f>
         <v>90</v>
       </c>
@@ -1506,60 +1483,52 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="28"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1567,7 +1536,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="3">
@@ -1575,7 +1544,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="3">
@@ -1583,7 +1552,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="3">
@@ -1591,7 +1560,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="3">
@@ -1599,7 +1568,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3">
@@ -1607,7 +1576,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="3">
@@ -1615,7 +1584,7 @@
       </c>
     </row>
     <row r="17" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3">
@@ -1623,7 +1592,7 @@
       </c>
     </row>
     <row r="18" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3">
@@ -1631,7 +1600,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="3">
@@ -1639,7 +1608,7 @@
       </c>
     </row>
     <row r="20" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="3">
@@ -1647,7 +1616,7 @@
       </c>
     </row>
     <row r="21" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="3">
@@ -1655,7 +1624,7 @@
       </c>
     </row>
     <row r="22" spans="3:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="3">
@@ -1663,7 +1632,7 @@
       </c>
     </row>
     <row r="23" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="3">
@@ -1671,10 +1640,10 @@
       </c>
     </row>
     <row r="24" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="47">
         <v>90</v>
       </c>
     </row>
@@ -1682,37 +1651,37 @@
       <c r="C25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <f>SUM(D11:D21,D23:D29)/13</f>
         <v>90</v>
       </c>
@@ -1739,7 +1708,7 @@
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="61.6640625" customWidth="1"/>
@@ -1747,53 +1716,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="28"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1804,33 +1765,33 @@
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="50">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="C12" s="16" t="s">
+      <c r="D11" s="47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="2:6" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="47">
         <v>90</v>
       </c>
     </row>
@@ -1838,105 +1799,105 @@
       <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" spans="3:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="49"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="47">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="3:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="3:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="48"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="51"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="47">
         <v>90</v>
       </c>
     </row>
@@ -1944,43 +1905,43 @@
       <c r="C33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="51"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="51"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="51"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="52"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="6" t="s">
@@ -1991,7 +1952,7 @@
       </c>
     </row>
     <row r="41" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="3">
@@ -2022,7 +1983,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C45" s="6" t="s">
         <v>82</v>
       </c>
@@ -2034,23 +1995,23 @@
       <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="16">
         <f>SUM(D11:D45)/10</f>
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="D15:D23"/>
     <mergeCell ref="D24:D31"/>
     <mergeCell ref="D32:D39"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
